--- a/data/Preparation/raw/Tech.xlsx
+++ b/data/Preparation/raw/Tech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\use\Dropbox (OPML)\LIGADA MEL\MEL working\09 Follow up studies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7139F49C-3DF4-42F8-ABD6-0D336A1698E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF2E645-2BD6-4DBA-A796-F90DFB5EFD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="2460" windowWidth="15375" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="835">
   <si>
     <t>Nome</t>
   </si>
@@ -2505,9 +2505,6 @@
   </si>
   <si>
     <t>846-577-992</t>
-  </si>
-  <si>
-    <t>850-109-510</t>
   </si>
   <si>
     <t>826-524-844</t>
@@ -2923,11 +2920,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N216"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C219" sqref="C219"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3456,7 +3453,7 @@
         <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="L14" t="s">
         <v>177</v>
@@ -4102,7 +4099,7 @@
         <v>159</v>
       </c>
       <c r="J31" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L31" t="s">
         <v>177</v>
@@ -4113,16 +4110,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B32">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C32" t="s">
         <v>311</v>
       </c>
       <c r="D32" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E32" t="s">
         <v>67</v>
@@ -4137,10 +4134,10 @@
         <v>314</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="J32" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s">
         <v>177</v>
@@ -4151,16 +4148,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B33">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C33" t="s">
         <v>311</v>
       </c>
       <c r="D33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E33" t="s">
         <v>67</v>
@@ -4175,10 +4172,10 @@
         <v>314</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
+        <v>824</v>
       </c>
       <c r="L33" t="s">
         <v>177</v>
@@ -4189,13 +4186,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34">
-        <v>1997</v>
+        <v>334</v>
+      </c>
+      <c r="B34" t="s">
+        <v>378</v>
       </c>
       <c r="C34" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D34" t="s">
         <v>401</v>
@@ -4207,33 +4204,33 @@
         <v>178</v>
       </c>
       <c r="G34" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H34" t="s">
         <v>314</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>817</v>
+        <v>422</v>
       </c>
       <c r="J34" t="s">
-        <v>825</v>
+        <v>423</v>
       </c>
       <c r="L34" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>334</v>
-      </c>
-      <c r="B35" t="s">
-        <v>378</v>
+        <v>108</v>
+      </c>
+      <c r="B35">
+        <v>1993</v>
       </c>
       <c r="C35" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D35" t="s">
         <v>401</v>
@@ -4245,27 +4242,27 @@
         <v>178</v>
       </c>
       <c r="G35" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H35" t="s">
         <v>314</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>422</v>
+        <v>173</v>
       </c>
       <c r="J35" t="s">
-        <v>423</v>
+        <v>173</v>
       </c>
       <c r="L35" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B36">
         <v>1993</v>
@@ -4274,7 +4271,7 @@
         <v>311</v>
       </c>
       <c r="D36" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E36" t="s">
         <v>67</v>
@@ -4289,7 +4286,7 @@
         <v>314</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="J36" t="s">
         <v>173</v>
@@ -4303,16 +4300,16 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37">
-        <v>1993</v>
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>400</v>
       </c>
       <c r="C37" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E37" t="s">
         <v>67</v>
@@ -4321,36 +4318,36 @@
         <v>178</v>
       </c>
       <c r="G37" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H37" t="s">
         <v>314</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>173</v>
+        <v>440</v>
       </c>
       <c r="L37" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>400</v>
+        <v>75</v>
+      </c>
+      <c r="B38">
+        <v>1997</v>
       </c>
       <c r="C38" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E38" t="s">
         <v>67</v>
@@ -4359,30 +4356,30 @@
         <v>178</v>
       </c>
       <c r="G38" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H38" t="s">
         <v>314</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="J38" t="s">
-        <v>440</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B39">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C39" t="s">
         <v>311</v>
@@ -4403,10 +4400,10 @@
         <v>314</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J39" t="s">
-        <v>173</v>
+        <v>825</v>
       </c>
       <c r="L39" t="s">
         <v>177</v>
@@ -4417,16 +4414,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B40">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C40" t="s">
         <v>311</v>
       </c>
       <c r="D40" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E40" t="s">
         <v>67</v>
@@ -4441,7 +4438,7 @@
         <v>314</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J40" t="s">
         <v>826</v>
@@ -4455,10 +4452,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B41">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C41" t="s">
         <v>311</v>
@@ -4479,10 +4476,10 @@
         <v>314</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J41" t="s">
-        <v>827</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s">
         <v>177</v>
@@ -4493,16 +4490,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42">
-        <v>1997</v>
+        <v>332</v>
+      </c>
+      <c r="B42" t="s">
+        <v>376</v>
       </c>
       <c r="C42" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E42" t="s">
         <v>67</v>
@@ -4511,36 +4508,36 @@
         <v>178</v>
       </c>
       <c r="G42" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H42" t="s">
         <v>314</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="J42" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="L42" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>332</v>
-      </c>
-      <c r="B43" t="s">
-        <v>376</v>
+        <v>76</v>
+      </c>
+      <c r="B43">
+        <v>1997</v>
       </c>
       <c r="C43" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D43" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E43" t="s">
         <v>67</v>
@@ -4549,33 +4546,33 @@
         <v>178</v>
       </c>
       <c r="G43" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H43" t="s">
         <v>314</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>66</v>
+        <v>818</v>
       </c>
       <c r="J43" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44">
-        <v>1997</v>
+        <v>319</v>
+      </c>
+      <c r="B44" t="s">
+        <v>361</v>
       </c>
       <c r="C44" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D44" t="s">
         <v>402</v>
@@ -4587,36 +4584,36 @@
         <v>178</v>
       </c>
       <c r="G44" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H44" t="s">
         <v>314</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>818</v>
+        <v>33</v>
       </c>
       <c r="J44" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="L44" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C45" t="s">
         <v>404</v>
       </c>
       <c r="D45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E45" t="s">
         <v>67</v>
@@ -4631,10 +4628,10 @@
         <v>314</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>33</v>
+        <v>425</v>
       </c>
       <c r="L45" t="s">
         <v>312</v>
@@ -4645,13 +4642,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>337</v>
-      </c>
-      <c r="B46" t="s">
-        <v>381</v>
+        <v>77</v>
+      </c>
+      <c r="B46">
+        <v>1998</v>
       </c>
       <c r="C46" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D46" t="s">
         <v>401</v>
@@ -4663,36 +4660,36 @@
         <v>178</v>
       </c>
       <c r="G46" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H46" t="s">
         <v>314</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="J46" t="s">
-        <v>425</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47">
-        <v>1998</v>
+        <v>354</v>
+      </c>
+      <c r="B47" t="s">
+        <v>399</v>
       </c>
       <c r="C47" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D47" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E47" t="s">
         <v>67</v>
@@ -4701,30 +4698,30 @@
         <v>178</v>
       </c>
       <c r="G47" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H47" t="s">
         <v>314</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="J47" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="L47" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C48" t="s">
         <v>404</v>
@@ -4745,10 +4742,10 @@
         <v>314</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J48" t="s">
-        <v>34</v>
+        <v>435</v>
       </c>
       <c r="L48" t="s">
         <v>312</v>
@@ -4759,16 +4756,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>352</v>
       </c>
       <c r="B49" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C49" t="s">
         <v>404</v>
       </c>
       <c r="D49" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E49" t="s">
         <v>67</v>
@@ -4783,10 +4780,10 @@
         <v>314</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s">
         <v>312</v>
@@ -4797,10 +4794,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="C50" t="s">
         <v>404</v>
@@ -4821,10 +4818,10 @@
         <v>314</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="L50" t="s">
         <v>312</v>
@@ -4835,16 +4832,16 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>326</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C51" t="s">
         <v>404</v>
       </c>
       <c r="D51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E51" t="s">
         <v>67</v>
@@ -4859,10 +4856,10 @@
         <v>314</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="J51" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s">
         <v>312</v>
@@ -4873,13 +4870,13 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" t="s">
-        <v>358</v>
+        <v>78</v>
+      </c>
+      <c r="B52">
+        <v>1997</v>
       </c>
       <c r="C52" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D52" t="s">
         <v>401</v>
@@ -4891,36 +4888,36 @@
         <v>178</v>
       </c>
       <c r="G52" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H52" t="s">
         <v>314</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="J52" t="s">
-        <v>408</v>
+        <v>827</v>
       </c>
       <c r="L52" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C53" t="s">
         <v>311</v>
       </c>
       <c r="D53" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E53" t="s">
         <v>67</v>
@@ -4935,10 +4932,10 @@
         <v>314</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>136</v>
+        <v>819</v>
       </c>
       <c r="J53" t="s">
-        <v>828</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s">
         <v>177</v>
@@ -4949,16 +4946,16 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B54">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="C54" t="s">
         <v>311</v>
       </c>
       <c r="D54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E54" t="s">
         <v>67</v>
@@ -4973,7 +4970,7 @@
         <v>314</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>819</v>
+        <v>163</v>
       </c>
       <c r="J54" t="s">
         <v>173</v>
@@ -4987,10 +4984,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B55">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C55" t="s">
         <v>311</v>
@@ -5011,7 +5008,7 @@
         <v>314</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J55" t="s">
         <v>173</v>
@@ -5025,16 +5022,16 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56">
-        <v>2000</v>
+        <v>333</v>
+      </c>
+      <c r="B56" t="s">
+        <v>377</v>
       </c>
       <c r="C56" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D56" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E56" t="s">
         <v>67</v>
@@ -5043,36 +5040,36 @@
         <v>178</v>
       </c>
       <c r="G56" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H56" t="s">
         <v>314</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="J56" t="s">
-        <v>173</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B57" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C57" t="s">
         <v>404</v>
       </c>
       <c r="D57" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E57" t="s">
         <v>67</v>
@@ -5087,10 +5084,10 @@
         <v>314</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s">
         <v>312</v>
@@ -5101,13 +5098,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>328</v>
-      </c>
-      <c r="B58" t="s">
-        <v>372</v>
+        <v>90</v>
+      </c>
+      <c r="B58">
+        <v>1995</v>
       </c>
       <c r="C58" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D58" t="s">
         <v>402</v>
@@ -5119,30 +5116,30 @@
         <v>178</v>
       </c>
       <c r="G58" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H58" t="s">
         <v>314</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="J58" t="s">
-        <v>419</v>
+        <v>828</v>
       </c>
       <c r="L58" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B59">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="C59" t="s">
         <v>311</v>
@@ -5163,10 +5160,10 @@
         <v>314</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="J59" t="s">
-        <v>829</v>
+        <v>173</v>
       </c>
       <c r="L59" t="s">
         <v>177</v>
@@ -5177,10 +5174,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B60">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="C60" t="s">
         <v>311</v>
@@ -5201,10 +5198,10 @@
         <v>314</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J60" t="s">
-        <v>173</v>
+        <v>829</v>
       </c>
       <c r="L60" t="s">
         <v>177</v>
@@ -5215,16 +5212,16 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B61">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C61" t="s">
         <v>311</v>
       </c>
       <c r="D61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E61" t="s">
         <v>67</v>
@@ -5239,7 +5236,7 @@
         <v>314</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J61" t="s">
         <v>830</v>
@@ -5253,10 +5250,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B62">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C62" t="s">
         <v>311</v>
@@ -5277,7 +5274,7 @@
         <v>314</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="J62" t="s">
         <v>831</v>
@@ -5291,10 +5288,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C63" t="s">
         <v>311</v>
@@ -5315,10 +5312,10 @@
         <v>314</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>137</v>
+        <v>820</v>
       </c>
       <c r="J63" t="s">
-        <v>832</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s">
         <v>177</v>
@@ -5329,13 +5326,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64">
-        <v>1997</v>
+        <v>345</v>
+      </c>
+      <c r="B64" t="s">
+        <v>388</v>
       </c>
       <c r="C64" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D64" t="s">
         <v>401</v>
@@ -5347,36 +5344,36 @@
         <v>178</v>
       </c>
       <c r="G64" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H64" t="s">
         <v>314</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>820</v>
+        <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>173</v>
+        <v>432</v>
       </c>
       <c r="L64" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C65" t="s">
         <v>404</v>
       </c>
       <c r="D65" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E65" t="s">
         <v>67</v>
@@ -5391,10 +5388,10 @@
         <v>314</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J65" t="s">
-        <v>432</v>
+        <v>35</v>
       </c>
       <c r="L65" t="s">
         <v>312</v>
@@ -5405,16 +5402,16 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B66" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C66" t="s">
         <v>404</v>
       </c>
       <c r="D66" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E66" t="s">
         <v>67</v>
@@ -5428,11 +5425,11 @@
       <c r="H66" t="s">
         <v>314</v>
       </c>
-      <c r="I66" s="8" t="s">
-        <v>35</v>
+      <c r="I66" t="s">
+        <v>53</v>
       </c>
       <c r="J66" t="s">
-        <v>35</v>
+        <v>428</v>
       </c>
       <c r="L66" t="s">
         <v>312</v>
@@ -5443,13 +5440,13 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>340</v>
-      </c>
-      <c r="B67" t="s">
-        <v>384</v>
+        <v>83</v>
+      </c>
+      <c r="B67">
+        <v>1994</v>
       </c>
       <c r="C67" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D67" t="s">
         <v>403</v>
@@ -5461,36 +5458,36 @@
         <v>178</v>
       </c>
       <c r="G67" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H67" t="s">
         <v>314</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>821</v>
       </c>
       <c r="J67" t="s">
-        <v>428</v>
+        <v>173</v>
       </c>
       <c r="L67" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68">
-        <v>1994</v>
+        <v>324</v>
+      </c>
+      <c r="B68" t="s">
+        <v>367</v>
       </c>
       <c r="C68" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D68" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E68" t="s">
         <v>67</v>
@@ -5499,30 +5496,30 @@
         <v>178</v>
       </c>
       <c r="G68" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H68" t="s">
         <v>314</v>
       </c>
       <c r="I68" t="s">
-        <v>821</v>
+        <v>47</v>
       </c>
       <c r="J68" t="s">
-        <v>173</v>
+        <v>414</v>
       </c>
       <c r="L68" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B69" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C69" t="s">
         <v>404</v>
@@ -5543,10 +5540,10 @@
         <v>314</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J69" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L69" t="s">
         <v>312</v>
@@ -5557,16 +5554,16 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B70" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C70" t="s">
         <v>404</v>
       </c>
       <c r="D70" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E70" t="s">
         <v>67</v>
@@ -5581,10 +5578,10 @@
         <v>314</v>
       </c>
       <c r="I70" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J70" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="L70" t="s">
         <v>312</v>
@@ -5595,13 +5592,13 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>316</v>
-      </c>
-      <c r="B71" t="s">
-        <v>356</v>
+        <v>84</v>
+      </c>
+      <c r="B71">
+        <v>1998</v>
       </c>
       <c r="C71" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D71" t="s">
         <v>402</v>
@@ -5613,33 +5610,33 @@
         <v>178</v>
       </c>
       <c r="G71" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H71" t="s">
         <v>314</v>
       </c>
       <c r="I71" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="J71" t="s">
-        <v>406</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72">
-        <v>1998</v>
+        <v>343</v>
+      </c>
+      <c r="B72" t="s">
+        <v>386</v>
       </c>
       <c r="C72" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D72" t="s">
         <v>402</v>
@@ -5651,36 +5648,36 @@
         <v>178</v>
       </c>
       <c r="G72" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H72" t="s">
         <v>314</v>
       </c>
       <c r="I72" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="J72" t="s">
-        <v>173</v>
+        <v>430</v>
       </c>
       <c r="L72" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B73" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C73" t="s">
         <v>404</v>
       </c>
       <c r="D73" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E73" t="s">
         <v>67</v>
@@ -5695,10 +5692,10 @@
         <v>314</v>
       </c>
       <c r="I73" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J73" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="L73" t="s">
         <v>312</v>
@@ -5709,16 +5706,16 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>327</v>
-      </c>
-      <c r="B74" t="s">
-        <v>371</v>
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <v>1999</v>
       </c>
       <c r="C74" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D74" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E74" t="s">
         <v>67</v>
@@ -5727,30 +5724,30 @@
         <v>178</v>
       </c>
       <c r="G74" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H74" t="s">
         <v>314</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="J74" t="s">
-        <v>418</v>
+        <v>173</v>
       </c>
       <c r="L74" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N74" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C75" t="s">
         <v>311</v>
@@ -5771,7 +5768,7 @@
         <v>314</v>
       </c>
       <c r="I75" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="J75" t="s">
         <v>173</v>
@@ -5785,13 +5782,13 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76">
-        <v>1997</v>
+        <v>321</v>
+      </c>
+      <c r="B76" t="s">
+        <v>364</v>
       </c>
       <c r="C76" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D76" t="s">
         <v>402</v>
@@ -5803,33 +5800,33 @@
         <v>178</v>
       </c>
       <c r="G76" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H76" t="s">
         <v>314</v>
       </c>
       <c r="I76" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="J76" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="L76" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>321</v>
-      </c>
-      <c r="B77" t="s">
-        <v>364</v>
+        <v>86</v>
+      </c>
+      <c r="B77">
+        <v>2000</v>
       </c>
       <c r="C77" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D77" t="s">
         <v>402</v>
@@ -5841,36 +5838,36 @@
         <v>178</v>
       </c>
       <c r="G77" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H77" t="s">
         <v>314</v>
       </c>
       <c r="I77" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="J77" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="L77" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N77" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B78">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="C78" t="s">
         <v>311</v>
       </c>
       <c r="D78" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E78" t="s">
         <v>67</v>
@@ -5885,7 +5882,7 @@
         <v>314</v>
       </c>
       <c r="I78" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="J78" t="s">
         <v>173</v>
@@ -5899,16 +5896,16 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79">
-        <v>1995</v>
+        <v>317</v>
+      </c>
+      <c r="B79" t="s">
+        <v>357</v>
       </c>
       <c r="C79" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D79" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E79" t="s">
         <v>67</v>
@@ -5917,36 +5914,36 @@
         <v>178</v>
       </c>
       <c r="G79" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H79" t="s">
         <v>314</v>
       </c>
       <c r="I79" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="J79" t="s">
-        <v>173</v>
+        <v>407</v>
       </c>
       <c r="L79" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N79" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="B80" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="C80" t="s">
         <v>404</v>
       </c>
       <c r="D80" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E80" t="s">
         <v>67</v>
@@ -5961,10 +5958,10 @@
         <v>314</v>
       </c>
       <c r="I80" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="J80" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="L80" t="s">
         <v>312</v>
@@ -5975,16 +5972,16 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>338</v>
-      </c>
-      <c r="B81" t="s">
-        <v>382</v>
+        <v>87</v>
+      </c>
+      <c r="B81">
+        <v>1996</v>
       </c>
       <c r="C81" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D81" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E81" t="s">
         <v>67</v>
@@ -5993,33 +5990,33 @@
         <v>178</v>
       </c>
       <c r="G81" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H81" t="s">
         <v>314</v>
       </c>
       <c r="I81" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="J81" t="s">
-        <v>426</v>
+        <v>173</v>
       </c>
       <c r="L81" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N81" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <v>1996</v>
+        <v>318</v>
+      </c>
+      <c r="B82" t="s">
+        <v>360</v>
       </c>
       <c r="C82" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D82" t="s">
         <v>402</v>
@@ -6031,36 +6028,36 @@
         <v>178</v>
       </c>
       <c r="G82" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H82" t="s">
         <v>314</v>
       </c>
       <c r="I82" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="J82" t="s">
-        <v>173</v>
+        <v>410</v>
       </c>
       <c r="L82" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N82" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C83" t="s">
         <v>404</v>
       </c>
       <c r="D83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E83" t="s">
         <v>67</v>
@@ -6075,10 +6072,10 @@
         <v>314</v>
       </c>
       <c r="I83" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="L83" t="s">
         <v>312</v>
@@ -6089,10 +6086,10 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="B84" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="C84" t="s">
         <v>404</v>
@@ -6113,10 +6110,10 @@
         <v>314</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="L84" t="s">
         <v>312</v>
@@ -6127,13 +6124,13 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>350</v>
-      </c>
-      <c r="B85" t="s">
-        <v>395</v>
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>1993</v>
       </c>
       <c r="C85" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D85" t="s">
         <v>401</v>
@@ -6145,30 +6142,30 @@
         <v>178</v>
       </c>
       <c r="G85" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H85" t="s">
         <v>314</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="J85" t="s">
-        <v>437</v>
+        <v>173</v>
       </c>
       <c r="L85" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N85" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B86">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C86" t="s">
         <v>311</v>
@@ -6189,7 +6186,7 @@
         <v>314</v>
       </c>
       <c r="I86" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="J86" t="s">
         <v>173</v>
@@ -6203,7 +6200,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B87">
         <v>1997</v>
@@ -6212,7 +6209,7 @@
         <v>311</v>
       </c>
       <c r="D87" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E87" t="s">
         <v>67</v>
@@ -6227,7 +6224,7 @@
         <v>314</v>
       </c>
       <c r="I87" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J87" t="s">
         <v>173</v>
@@ -6241,16 +6238,16 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B88">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C88" t="s">
         <v>311</v>
       </c>
       <c r="D88" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E88" t="s">
         <v>67</v>
@@ -6265,7 +6262,7 @@
         <v>314</v>
       </c>
       <c r="I88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J88" t="s">
         <v>173</v>
@@ -6279,16 +6276,16 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B89">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C89" t="s">
         <v>311</v>
       </c>
       <c r="D89" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E89" t="s">
         <v>67</v>
@@ -6303,7 +6300,7 @@
         <v>314</v>
       </c>
       <c r="I89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J89" t="s">
         <v>173</v>
@@ -6317,10 +6314,10 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C90" t="s">
         <v>311</v>
@@ -6341,7 +6338,7 @@
         <v>314</v>
       </c>
       <c r="I90" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="J90" t="s">
         <v>173</v>
@@ -6355,13 +6352,13 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>1996</v>
+        <v>351</v>
+      </c>
+      <c r="B91" t="s">
+        <v>396</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D91" t="s">
         <v>402</v>
@@ -6373,33 +6370,33 @@
         <v>178</v>
       </c>
       <c r="G91" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H91" t="s">
         <v>314</v>
       </c>
       <c r="I91" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="J91" t="s">
-        <v>173</v>
+        <v>438</v>
       </c>
       <c r="L91" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N91" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>351</v>
-      </c>
-      <c r="B92" t="s">
-        <v>396</v>
+        <v>121</v>
+      </c>
+      <c r="B92">
+        <v>1998</v>
       </c>
       <c r="C92" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D92" t="s">
         <v>402</v>
@@ -6411,30 +6408,30 @@
         <v>178</v>
       </c>
       <c r="G92" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H92" t="s">
         <v>314</v>
       </c>
       <c r="I92" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="J92" t="s">
-        <v>438</v>
+        <v>832</v>
       </c>
       <c r="L92" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N92" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B93">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C93" t="s">
         <v>311</v>
@@ -6455,10 +6452,10 @@
         <v>314</v>
       </c>
       <c r="I93" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J93" t="s">
-        <v>833</v>
+        <v>173</v>
       </c>
       <c r="L93" t="s">
         <v>177</v>
@@ -6469,16 +6466,16 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B94">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="C94" t="s">
         <v>311</v>
       </c>
       <c r="D94" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E94" t="s">
         <v>67</v>
@@ -6493,7 +6490,7 @@
         <v>314</v>
       </c>
       <c r="I94" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J94" t="s">
         <v>173</v>
@@ -6507,7 +6504,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B95">
         <v>1994</v>
@@ -6516,7 +6513,7 @@
         <v>311</v>
       </c>
       <c r="D95" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E95" t="s">
         <v>67</v>
@@ -6531,7 +6528,7 @@
         <v>314</v>
       </c>
       <c r="I95" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J95" t="s">
         <v>173</v>
@@ -6545,16 +6542,16 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>123</v>
-      </c>
-      <c r="B96">
-        <v>1994</v>
+        <v>320</v>
+      </c>
+      <c r="B96" t="s">
+        <v>363</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D96" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E96" t="s">
         <v>67</v>
@@ -6563,36 +6560,36 @@
         <v>178</v>
       </c>
       <c r="G96" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H96" t="s">
         <v>314</v>
       </c>
       <c r="I96" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="J96" t="s">
-        <v>173</v>
+        <v>412</v>
       </c>
       <c r="L96" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N96" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>320</v>
-      </c>
-      <c r="B97" t="s">
-        <v>363</v>
+        <v>124</v>
+      </c>
+      <c r="B97">
+        <v>1997</v>
       </c>
       <c r="C97" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D97" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E97" t="s">
         <v>67</v>
@@ -6601,36 +6598,36 @@
         <v>178</v>
       </c>
       <c r="G97" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H97" t="s">
         <v>314</v>
       </c>
       <c r="I97" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="J97" t="s">
-        <v>412</v>
+        <v>173</v>
       </c>
       <c r="L97" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N97" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="B98">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C98" t="s">
         <v>311</v>
       </c>
       <c r="D98" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E98" t="s">
         <v>67</v>
@@ -6645,10 +6642,10 @@
         <v>314</v>
       </c>
       <c r="I98" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="J98" t="s">
-        <v>173</v>
+        <v>833</v>
       </c>
       <c r="L98" t="s">
         <v>177</v>
@@ -6659,16 +6656,16 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B99">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="C99" t="s">
         <v>311</v>
       </c>
       <c r="D99" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E99" t="s">
         <v>67</v>
@@ -6683,10 +6680,10 @@
         <v>314</v>
       </c>
       <c r="I99" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J99" t="s">
-        <v>834</v>
+        <v>173</v>
       </c>
       <c r="L99" t="s">
         <v>177</v>
@@ -6697,16 +6694,16 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B100">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C100" t="s">
         <v>311</v>
       </c>
       <c r="D100" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E100" t="s">
         <v>67</v>
@@ -6721,10 +6718,10 @@
         <v>314</v>
       </c>
       <c r="I100" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J100" t="s">
-        <v>173</v>
+        <v>834</v>
       </c>
       <c r="L100" t="s">
         <v>177</v>
@@ -6735,16 +6732,16 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B101">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="C101" t="s">
         <v>311</v>
       </c>
       <c r="D101" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E101" t="s">
         <v>67</v>
@@ -6759,10 +6756,10 @@
         <v>314</v>
       </c>
       <c r="I101" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J101" t="s">
-        <v>835</v>
+        <v>173</v>
       </c>
       <c r="L101" t="s">
         <v>177</v>
@@ -6773,13 +6770,13 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102">
-        <v>1995</v>
+        <v>330</v>
+      </c>
+      <c r="B102" t="s">
+        <v>374</v>
       </c>
       <c r="C102" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D102" t="s">
         <v>402</v>
@@ -6791,33 +6788,33 @@
         <v>178</v>
       </c>
       <c r="G102" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H102" t="s">
         <v>314</v>
       </c>
       <c r="I102" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="J102" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="L102" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N102" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>330</v>
-      </c>
-      <c r="B103" t="s">
-        <v>374</v>
+        <v>126</v>
+      </c>
+      <c r="B103">
+        <v>1997</v>
       </c>
       <c r="C103" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D103" t="s">
         <v>402</v>
@@ -6829,36 +6826,36 @@
         <v>178</v>
       </c>
       <c r="G103" s="7">
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="H103" t="s">
         <v>314</v>
       </c>
       <c r="I103" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="J103" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="L103" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="N103" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>126</v>
-      </c>
-      <c r="B104">
-        <v>1997</v>
+        <v>347</v>
+      </c>
+      <c r="B104" t="s">
+        <v>392</v>
       </c>
       <c r="C104" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="D104" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E104" t="s">
         <v>67</v>
@@ -6867,36 +6864,36 @@
         <v>178</v>
       </c>
       <c r="G104" s="7">
-        <v>43374</v>
+        <v>42887</v>
       </c>
       <c r="H104" t="s">
         <v>314</v>
       </c>
       <c r="I104" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="J104" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="L104" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="N104" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B105" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="C105" t="s">
         <v>404</v>
       </c>
       <c r="D105" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E105" t="s">
         <v>67</v>
@@ -6911,10 +6908,10 @@
         <v>314</v>
       </c>
       <c r="I105" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L105" t="s">
         <v>312</v>
@@ -6925,16 +6922,16 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B106" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C106" t="s">
         <v>404</v>
       </c>
       <c r="D106" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E106" t="s">
         <v>67</v>
@@ -6949,10 +6946,10 @@
         <v>314</v>
       </c>
       <c r="I106" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J106" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="L106" t="s">
         <v>312</v>
@@ -6963,10 +6960,10 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B107" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="C107" t="s">
         <v>404</v>
@@ -6987,10 +6984,10 @@
         <v>314</v>
       </c>
       <c r="I107" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J107" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L107" t="s">
         <v>312</v>
@@ -7001,10 +6998,10 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B108" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="C108" t="s">
         <v>404</v>
@@ -7025,10 +7022,10 @@
         <v>314</v>
       </c>
       <c r="I108" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J108" t="s">
-        <v>55</v>
+        <v>424</v>
       </c>
       <c r="L108" t="s">
         <v>312</v>
@@ -7039,34 +7036,34 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>335</v>
-      </c>
-      <c r="B109" t="s">
-        <v>379</v>
+        <v>179</v>
+      </c>
+      <c r="B109">
+        <v>1996</v>
       </c>
       <c r="C109" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D109" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E109" t="s">
         <v>67</v>
       </c>
       <c r="F109" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="G109" s="7">
-        <v>42887</v>
+        <v>43160</v>
       </c>
       <c r="H109" t="s">
         <v>314</v>
       </c>
-      <c r="I109" t="s">
-        <v>63</v>
+      <c r="I109" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="J109" t="s">
-        <v>424</v>
+        <v>205</v>
       </c>
       <c r="L109" t="s">
         <v>312</v>
@@ -7077,10 +7074,10 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B110">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C110" t="s">
         <v>311</v>
@@ -7100,11 +7097,11 @@
       <c r="H110" t="s">
         <v>314</v>
       </c>
-      <c r="I110" s="3" t="s">
-        <v>205</v>
+      <c r="I110" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="J110" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L110" t="s">
         <v>312</v>
@@ -7115,16 +7112,16 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B111">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C111" t="s">
         <v>311</v>
       </c>
       <c r="D111" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E111" t="s">
         <v>67</v>
@@ -7139,10 +7136,10 @@
         <v>314</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J111" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L111" t="s">
         <v>312</v>
@@ -7153,16 +7150,16 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
       <c r="B112">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C112" t="s">
         <v>311</v>
       </c>
       <c r="D112" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E112" t="s">
         <v>67</v>
@@ -7176,11 +7173,11 @@
       <c r="H112" t="s">
         <v>314</v>
       </c>
-      <c r="I112" s="4" t="s">
-        <v>207</v>
+      <c r="I112" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="J112" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L112" t="s">
         <v>312</v>
@@ -7191,10 +7188,10 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="B113">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="C113" t="s">
         <v>311</v>
@@ -7214,11 +7211,11 @@
       <c r="H113" t="s">
         <v>314</v>
       </c>
-      <c r="I113" s="5" t="s">
-        <v>208</v>
+      <c r="I113" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="J113" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L113" t="s">
         <v>312</v>
@@ -7229,16 +7226,16 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="B114">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="C114" t="s">
         <v>311</v>
       </c>
       <c r="D114" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E114" t="s">
         <v>67</v>
@@ -7252,11 +7249,11 @@
       <c r="H114" t="s">
         <v>314</v>
       </c>
-      <c r="I114" s="4" t="s">
-        <v>209</v>
+      <c r="I114" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="J114" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="L114" t="s">
         <v>312</v>
@@ -7267,10 +7264,10 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B115">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C115" t="s">
         <v>311</v>
@@ -7290,11 +7287,11 @@
       <c r="H115" t="s">
         <v>314</v>
       </c>
-      <c r="I115" s="5" t="s">
-        <v>210</v>
+      <c r="I115" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="J115" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="L115" t="s">
         <v>312</v>
@@ -7305,16 +7302,16 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B116">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C116" t="s">
         <v>311</v>
       </c>
       <c r="D116" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E116" t="s">
         <v>67</v>
@@ -7329,10 +7326,10 @@
         <v>314</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J116" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="L116" t="s">
         <v>312</v>
@@ -7343,16 +7340,16 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B117">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="C117" t="s">
         <v>311</v>
       </c>
       <c r="D117" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E117" t="s">
         <v>67</v>
@@ -7366,11 +7363,11 @@
       <c r="H117" t="s">
         <v>314</v>
       </c>
-      <c r="I117" s="2" t="s">
-        <v>212</v>
+      <c r="I117" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="J117" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="L117" t="s">
         <v>312</v>
@@ -7381,10 +7378,10 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>484</v>
+        <v>182</v>
       </c>
       <c r="B118">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="C118" t="s">
         <v>311</v>
@@ -7404,11 +7401,11 @@
       <c r="H118" t="s">
         <v>314</v>
       </c>
-      <c r="I118" s="5" t="s">
-        <v>213</v>
+      <c r="I118" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="J118" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L118" t="s">
         <v>312</v>
@@ -7419,16 +7416,16 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B119">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C119" t="s">
         <v>311</v>
       </c>
       <c r="D119" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E119" t="s">
         <v>67</v>
@@ -7443,10 +7440,10 @@
         <v>314</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J119" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L119" t="s">
         <v>312</v>
@@ -7457,10 +7454,10 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B120">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C120" t="s">
         <v>311</v>
@@ -7481,10 +7478,10 @@
         <v>314</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J120" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L120" t="s">
         <v>312</v>
@@ -7495,16 +7492,16 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B121">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="C121" t="s">
         <v>311</v>
       </c>
       <c r="D121" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E121" t="s">
         <v>67</v>
@@ -7518,11 +7515,11 @@
       <c r="H121" t="s">
         <v>314</v>
       </c>
-      <c r="I121" s="4" t="s">
-        <v>216</v>
+      <c r="I121" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="J121" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L121" t="s">
         <v>312</v>
@@ -7533,7 +7530,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>466</v>
       </c>
       <c r="B122">
         <v>1999</v>
@@ -7542,7 +7539,7 @@
         <v>311</v>
       </c>
       <c r="D122" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E122" t="s">
         <v>67</v>
@@ -7556,11 +7553,11 @@
       <c r="H122" t="s">
         <v>314</v>
       </c>
-      <c r="I122" s="5" t="s">
-        <v>217</v>
+      <c r="I122" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="J122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L122" t="s">
         <v>312</v>
@@ -7571,16 +7568,16 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>466</v>
+        <v>186</v>
       </c>
       <c r="B123">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="C123" t="s">
         <v>311</v>
       </c>
       <c r="D123" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E123" t="s">
         <v>67</v>
@@ -7594,11 +7591,11 @@
       <c r="H123" t="s">
         <v>314</v>
       </c>
-      <c r="I123" s="4" t="s">
-        <v>218</v>
+      <c r="I123" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="J123" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L123" t="s">
         <v>312</v>
@@ -7609,10 +7606,10 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B124">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C124" t="s">
         <v>311</v>
@@ -7632,11 +7629,11 @@
       <c r="H124" t="s">
         <v>314</v>
       </c>
-      <c r="I124" s="5" t="s">
-        <v>219</v>
+      <c r="I124" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="J124" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L124" t="s">
         <v>312</v>
@@ -7647,16 +7644,16 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>187</v>
+        <v>502</v>
       </c>
       <c r="B125">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C125" t="s">
         <v>311</v>
       </c>
       <c r="D125" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E125" t="s">
         <v>67</v>
@@ -7670,11 +7667,11 @@
       <c r="H125" t="s">
         <v>314</v>
       </c>
-      <c r="I125" s="4" t="s">
-        <v>220</v>
+      <c r="I125" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="J125" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L125" t="s">
         <v>312</v>
@@ -7685,10 +7682,10 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>502</v>
+        <v>188</v>
       </c>
       <c r="B126">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="C126" t="s">
         <v>311</v>
@@ -7708,11 +7705,11 @@
       <c r="H126" t="s">
         <v>314</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>221</v>
+      <c r="I126" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="J126" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L126" t="s">
         <v>312</v>
@@ -7723,10 +7720,10 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>188</v>
+        <v>445</v>
       </c>
       <c r="B127">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="C127" t="s">
         <v>311</v>
@@ -7746,11 +7743,11 @@
       <c r="H127" t="s">
         <v>314</v>
       </c>
-      <c r="I127" s="5" t="s">
-        <v>222</v>
+      <c r="I127" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="J127" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L127" t="s">
         <v>312</v>
@@ -7761,10 +7758,10 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="B128">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C128" t="s">
         <v>311</v>
@@ -7784,11 +7781,11 @@
       <c r="H128" t="s">
         <v>314</v>
       </c>
-      <c r="I128" s="4" t="s">
-        <v>223</v>
+      <c r="I128" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="J128" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L128" t="s">
         <v>312</v>
@@ -7799,10 +7796,10 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>509</v>
+        <v>189</v>
       </c>
       <c r="B129">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C129" t="s">
         <v>311</v>
@@ -7823,10 +7820,10 @@
         <v>314</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J129" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L129" t="s">
         <v>312</v>
@@ -7837,10 +7834,10 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>189</v>
+        <v>522</v>
       </c>
       <c r="B130">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C130" t="s">
         <v>311</v>
@@ -7860,11 +7857,11 @@
       <c r="H130" t="s">
         <v>314</v>
       </c>
-      <c r="I130" s="2" t="s">
-        <v>225</v>
+      <c r="I130" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="J130" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L130" t="s">
         <v>312</v>
@@ -7875,7 +7872,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>522</v>
+        <v>449</v>
       </c>
       <c r="B131">
         <v>1997</v>
@@ -7898,11 +7895,11 @@
       <c r="H131" t="s">
         <v>314</v>
       </c>
-      <c r="I131" s="6" t="s">
-        <v>226</v>
+      <c r="I131" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="J131" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L131" t="s">
         <v>312</v>
@@ -7913,10 +7910,10 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>449</v>
+        <v>190</v>
       </c>
       <c r="B132">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C132" t="s">
         <v>311</v>
@@ -7937,10 +7934,10 @@
         <v>314</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J132" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L132" t="s">
         <v>312</v>
@@ -7951,16 +7948,16 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B133">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C133" t="s">
         <v>311</v>
       </c>
       <c r="D133" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E133" t="s">
         <v>67</v>
@@ -7974,11 +7971,11 @@
       <c r="H133" t="s">
         <v>314</v>
       </c>
-      <c r="I133" s="2" t="s">
-        <v>228</v>
+      <c r="I133" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="J133" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="L133" t="s">
         <v>312</v>
@@ -7989,10 +7986,10 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B134">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="C134" t="s">
         <v>311</v>
@@ -8012,11 +8009,11 @@
       <c r="H134" t="s">
         <v>314</v>
       </c>
-      <c r="I134" s="4" t="s">
-        <v>229</v>
+      <c r="I134" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="J134" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="L134" t="s">
         <v>312</v>
@@ -8027,16 +8024,16 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>192</v>
+        <v>480</v>
       </c>
       <c r="B135">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C135" t="s">
         <v>311</v>
       </c>
       <c r="D135" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E135" t="s">
         <v>67</v>
@@ -8050,11 +8047,11 @@
       <c r="H135" t="s">
         <v>314</v>
       </c>
-      <c r="I135" s="2" t="s">
-        <v>230</v>
+      <c r="I135" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="J135" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L135" t="s">
         <v>312</v>
@@ -8065,10 +8062,10 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="B136">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C136" t="s">
         <v>311</v>
@@ -8089,10 +8086,10 @@
         <v>314</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J136" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L136" t="s">
         <v>312</v>
@@ -8103,7 +8100,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>494</v>
+        <v>193</v>
       </c>
       <c r="B137">
         <v>1995</v>
@@ -8127,10 +8124,10 @@
         <v>314</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J137" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L137" t="s">
         <v>312</v>
@@ -8141,16 +8138,16 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B138">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C138" t="s">
         <v>311</v>
       </c>
       <c r="D138" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E138" t="s">
         <v>67</v>
@@ -8164,11 +8161,11 @@
       <c r="H138" t="s">
         <v>314</v>
       </c>
-      <c r="I138" s="4" t="s">
-        <v>233</v>
+      <c r="I138" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="J138" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L138" t="s">
         <v>312</v>
@@ -8179,10 +8176,10 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>511</v>
       </c>
       <c r="B139">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C139" t="s">
         <v>311</v>
@@ -8202,11 +8199,11 @@
       <c r="H139" t="s">
         <v>314</v>
       </c>
-      <c r="I139" s="5" t="s">
-        <v>234</v>
+      <c r="I139" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="J139" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L139" t="s">
         <v>312</v>
@@ -8217,16 +8214,16 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B140">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C140" t="s">
         <v>311</v>
       </c>
       <c r="D140" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E140" t="s">
         <v>67</v>
@@ -8240,11 +8237,11 @@
       <c r="H140" t="s">
         <v>314</v>
       </c>
-      <c r="I140" s="4" t="s">
-        <v>235</v>
+      <c r="I140" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="J140" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L140" t="s">
         <v>312</v>
@@ -8255,16 +8252,16 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>507</v>
+        <v>456</v>
       </c>
       <c r="B141">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C141" t="s">
         <v>311</v>
       </c>
       <c r="D141" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E141" t="s">
         <v>67</v>
@@ -8278,11 +8275,11 @@
       <c r="H141" t="s">
         <v>314</v>
       </c>
-      <c r="I141" s="6" t="s">
-        <v>236</v>
+      <c r="I141" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="J141" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L141" t="s">
         <v>312</v>
@@ -8293,16 +8290,16 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>456</v>
+        <v>195</v>
       </c>
       <c r="B142">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C142" t="s">
         <v>311</v>
       </c>
       <c r="D142" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E142" t="s">
         <v>67</v>
@@ -8317,10 +8314,10 @@
         <v>314</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J142" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L142" t="s">
         <v>312</v>
@@ -8331,16 +8328,16 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>195</v>
+        <v>517</v>
       </c>
       <c r="B143">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="C143" t="s">
         <v>311</v>
       </c>
       <c r="D143" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E143" t="s">
         <v>67</v>
@@ -8354,11 +8351,11 @@
       <c r="H143" t="s">
         <v>314</v>
       </c>
-      <c r="I143" s="4" t="s">
-        <v>238</v>
+      <c r="I143" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="J143" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="L143" t="s">
         <v>312</v>
@@ -8369,10 +8366,10 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="B144">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C144" t="s">
         <v>311</v>
@@ -8392,11 +8389,11 @@
       <c r="H144" t="s">
         <v>314</v>
       </c>
-      <c r="I144" s="6" t="s">
-        <v>239</v>
+      <c r="I144" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="J144" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="L144" t="s">
         <v>312</v>
@@ -8407,16 +8404,16 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="B145">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="C145" t="s">
         <v>311</v>
       </c>
       <c r="D145" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E145" t="s">
         <v>67</v>
@@ -8431,10 +8428,10 @@
         <v>314</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J145" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L145" t="s">
         <v>312</v>
@@ -8445,16 +8442,16 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>450</v>
+        <v>196</v>
       </c>
       <c r="B146">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="C146" t="s">
         <v>311</v>
       </c>
       <c r="D146" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E146" t="s">
         <v>67</v>
@@ -8468,11 +8465,11 @@
       <c r="H146" t="s">
         <v>314</v>
       </c>
-      <c r="I146" s="2" t="s">
-        <v>241</v>
+      <c r="I146" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="J146" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L146" t="s">
         <v>312</v>
@@ -8483,16 +8480,16 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>196</v>
+        <v>482</v>
       </c>
       <c r="B147">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C147" t="s">
         <v>311</v>
       </c>
       <c r="D147" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E147" t="s">
         <v>67</v>
@@ -8506,11 +8503,11 @@
       <c r="H147" t="s">
         <v>314</v>
       </c>
-      <c r="I147" s="4" t="s">
-        <v>242</v>
+      <c r="I147" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="J147" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L147" t="s">
         <v>312</v>
@@ -8521,16 +8518,16 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>482</v>
+        <v>197</v>
       </c>
       <c r="B148">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C148" t="s">
         <v>311</v>
       </c>
       <c r="D148" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E148" t="s">
         <v>67</v>
@@ -8544,11 +8541,11 @@
       <c r="H148" t="s">
         <v>314</v>
       </c>
-      <c r="I148" s="2" t="s">
-        <v>243</v>
+      <c r="I148" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="J148" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L148" t="s">
         <v>312</v>
@@ -8559,10 +8556,10 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B149">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="C149" t="s">
         <v>311</v>
@@ -8582,11 +8579,11 @@
       <c r="H149" t="s">
         <v>314</v>
       </c>
-      <c r="I149" s="4" t="s">
-        <v>244</v>
+      <c r="I149" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="J149" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L149" t="s">
         <v>312</v>
@@ -8597,16 +8594,16 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B150">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="C150" t="s">
         <v>311</v>
       </c>
       <c r="D150" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E150" t="s">
         <v>67</v>
@@ -8620,11 +8617,11 @@
       <c r="H150" t="s">
         <v>314</v>
       </c>
-      <c r="I150" s="2" t="s">
-        <v>245</v>
+      <c r="I150" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="J150" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L150" t="s">
         <v>312</v>
@@ -8635,16 +8632,16 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B151">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C151" t="s">
         <v>311</v>
       </c>
       <c r="D151" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E151" t="s">
         <v>67</v>
@@ -8659,10 +8656,10 @@
         <v>314</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J151" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L151" t="s">
         <v>312</v>
@@ -8673,10 +8670,10 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>200</v>
+        <v>442</v>
       </c>
       <c r="B152">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C152" t="s">
         <v>311</v>
@@ -8697,10 +8694,10 @@
         <v>314</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J152" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L152" t="s">
         <v>312</v>
@@ -8711,16 +8708,16 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="B153">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C153" t="s">
         <v>311</v>
       </c>
       <c r="D153" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E153" t="s">
         <v>67</v>
@@ -8734,11 +8731,11 @@
       <c r="H153" t="s">
         <v>314</v>
       </c>
-      <c r="I153" s="4" t="s">
-        <v>248</v>
+      <c r="I153" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="J153" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L153" t="s">
         <v>312</v>
@@ -8749,16 +8746,16 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>469</v>
+        <v>201</v>
       </c>
       <c r="B154">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="C154" t="s">
         <v>311</v>
       </c>
       <c r="D154" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E154" t="s">
         <v>67</v>
@@ -8772,11 +8769,11 @@
       <c r="H154" t="s">
         <v>314</v>
       </c>
-      <c r="I154" s="2" t="s">
-        <v>249</v>
+      <c r="I154" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="J154" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L154" t="s">
         <v>312</v>
@@ -8787,16 +8784,16 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>201</v>
+        <v>478</v>
       </c>
       <c r="B155">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C155" t="s">
         <v>311</v>
       </c>
       <c r="D155" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E155" t="s">
         <v>67</v>
@@ -8810,11 +8807,11 @@
       <c r="H155" t="s">
         <v>314</v>
       </c>
-      <c r="I155" s="4" t="s">
-        <v>250</v>
+      <c r="I155" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="J155" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L155" t="s">
         <v>312</v>
@@ -8825,7 +8822,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>478</v>
+        <v>202</v>
       </c>
       <c r="B156">
         <v>1996</v>
@@ -8848,11 +8845,11 @@
       <c r="H156" t="s">
         <v>314</v>
       </c>
-      <c r="I156" s="2" t="s">
-        <v>251</v>
+      <c r="I156" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="J156" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L156" t="s">
         <v>312</v>
@@ -8863,16 +8860,16 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
       <c r="B157">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C157" t="s">
         <v>311</v>
       </c>
       <c r="D157" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E157" t="s">
         <v>67</v>
@@ -8886,11 +8883,11 @@
       <c r="H157" t="s">
         <v>314</v>
       </c>
-      <c r="I157" s="6" t="s">
-        <v>252</v>
+      <c r="I157" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="J157" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L157" t="s">
         <v>312</v>
@@ -8901,16 +8898,16 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="B158">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C158" t="s">
         <v>311</v>
       </c>
       <c r="D158" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E158" t="s">
         <v>67</v>
@@ -8924,11 +8921,11 @@
       <c r="H158" t="s">
         <v>314</v>
       </c>
-      <c r="I158" s="4" t="s">
-        <v>253</v>
+      <c r="I158" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="J158" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L158" t="s">
         <v>312</v>
@@ -8939,10 +8936,10 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>505</v>
+        <v>203</v>
       </c>
       <c r="B159">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="C159" t="s">
         <v>311</v>
@@ -8962,11 +8959,11 @@
       <c r="H159" t="s">
         <v>314</v>
       </c>
-      <c r="I159" s="6" t="s">
-        <v>254</v>
+      <c r="I159" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="J159" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L159" t="s">
         <v>312</v>
@@ -8977,10 +8974,10 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>203</v>
+        <v>513</v>
       </c>
       <c r="B160">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="C160" t="s">
         <v>311</v>
@@ -9000,11 +8997,11 @@
       <c r="H160" t="s">
         <v>314</v>
       </c>
-      <c r="I160" s="2" t="s">
-        <v>255</v>
+      <c r="I160" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="J160" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L160" t="s">
         <v>312</v>
@@ -9015,34 +9012,34 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B161">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C161" t="s">
         <v>311</v>
       </c>
       <c r="D161" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E161" t="s">
         <v>67</v>
       </c>
       <c r="F161" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="G161" s="7">
-        <v>43160</v>
+        <v>43374</v>
       </c>
       <c r="H161" t="s">
         <v>314</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J161" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L161" t="s">
         <v>312</v>
@@ -9053,10 +9050,10 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="B162">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="C162" t="s">
         <v>311</v>
@@ -9076,11 +9073,11 @@
       <c r="H162" t="s">
         <v>314</v>
       </c>
-      <c r="I162" s="4" t="s">
-        <v>258</v>
+      <c r="I162" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="J162" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L162" t="s">
         <v>312</v>
@@ -9091,16 +9088,16 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="B163">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="C163" t="s">
         <v>311</v>
       </c>
       <c r="D163" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E163" t="s">
         <v>67</v>
@@ -9114,11 +9111,11 @@
       <c r="H163" t="s">
         <v>314</v>
       </c>
-      <c r="I163" s="1" t="s">
-        <v>259</v>
+      <c r="I163" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="J163" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="L163" t="s">
         <v>312</v>
@@ -9129,16 +9126,16 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="B164">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C164" t="s">
         <v>311</v>
       </c>
       <c r="D164" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E164" t="s">
         <v>67</v>
@@ -9152,11 +9149,11 @@
       <c r="H164" t="s">
         <v>314</v>
       </c>
-      <c r="I164" s="2" t="s">
+      <c r="I164" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="J164" t="s">
         <v>260</v>
-      </c>
-      <c r="J164" t="s">
-        <v>285</v>
       </c>
       <c r="L164" t="s">
         <v>312</v>
@@ -9167,7 +9164,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B165">
         <v>1996</v>
@@ -9176,7 +9173,7 @@
         <v>311</v>
       </c>
       <c r="D165" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E165" t="s">
         <v>67</v>
@@ -9190,11 +9187,11 @@
       <c r="H165" t="s">
         <v>314</v>
       </c>
-      <c r="I165" s="5" t="s">
-        <v>261</v>
+      <c r="I165" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="J165" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L165" t="s">
         <v>312</v>
@@ -9205,16 +9202,16 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="B166">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C166" t="s">
         <v>311</v>
       </c>
       <c r="D166" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E166" t="s">
         <v>67</v>
@@ -9228,11 +9225,11 @@
       <c r="H166" t="s">
         <v>314</v>
       </c>
-      <c r="I166" s="4" t="s">
-        <v>262</v>
+      <c r="I166" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="J166" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L166" t="s">
         <v>312</v>
@@ -9243,10 +9240,10 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="B167">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C167" t="s">
         <v>311</v>
@@ -9266,11 +9263,11 @@
       <c r="H167" t="s">
         <v>314</v>
       </c>
-      <c r="I167" s="5" t="s">
-        <v>263</v>
+      <c r="I167" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="J167" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="L167" t="s">
         <v>312</v>
@@ -9281,16 +9278,16 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="B168">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C168" t="s">
         <v>311</v>
       </c>
       <c r="D168" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E168" t="s">
         <v>67</v>
@@ -9305,10 +9302,10 @@
         <v>314</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J168" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L168" t="s">
         <v>312</v>
@@ -9319,16 +9316,16 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B169">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C169" t="s">
         <v>311</v>
       </c>
       <c r="D169" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E169" t="s">
         <v>67</v>
@@ -9343,10 +9340,10 @@
         <v>314</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J169" t="s">
-        <v>262</v>
+        <v>525</v>
       </c>
       <c r="L169" t="s">
         <v>312</v>
@@ -9357,10 +9354,10 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="B170">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C170" t="s">
         <v>311</v>
@@ -9381,10 +9378,10 @@
         <v>314</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J170" t="s">
-        <v>525</v>
+        <v>263</v>
       </c>
       <c r="L170" t="s">
         <v>312</v>
@@ -9395,10 +9392,10 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="B171">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="C171" t="s">
         <v>311</v>
@@ -9419,10 +9416,10 @@
         <v>314</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J171" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L171" t="s">
         <v>312</v>
@@ -9433,10 +9430,10 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="B172">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C172" t="s">
         <v>311</v>
@@ -9457,10 +9454,10 @@
         <v>314</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J172" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="L172" t="s">
         <v>312</v>
@@ -9471,16 +9468,16 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B173">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C173" t="s">
         <v>311</v>
       </c>
       <c r="D173" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E173" t="s">
         <v>67</v>
@@ -9494,11 +9491,11 @@
       <c r="H173" t="s">
         <v>314</v>
       </c>
-      <c r="I173" s="4" t="s">
-        <v>269</v>
+      <c r="I173" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="J173" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="L173" t="s">
         <v>312</v>
@@ -9509,16 +9506,16 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B174">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C174" t="s">
         <v>311</v>
       </c>
       <c r="D174" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E174" t="s">
         <v>67</v>
@@ -9533,10 +9530,10 @@
         <v>314</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J174" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="L174" t="s">
         <v>312</v>
@@ -9547,16 +9544,16 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="B175">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="C175" t="s">
         <v>311</v>
       </c>
       <c r="D175" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E175" t="s">
         <v>67</v>
@@ -9570,11 +9567,11 @@
       <c r="H175" t="s">
         <v>314</v>
       </c>
-      <c r="I175" s="2" t="s">
-        <v>271</v>
+      <c r="I175" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="J175" t="s">
-        <v>290</v>
+        <v>526</v>
       </c>
       <c r="L175" t="s">
         <v>312</v>
@@ -9585,16 +9582,16 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="B176">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="C176" t="s">
         <v>311</v>
       </c>
       <c r="D176" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E176" t="s">
         <v>67</v>
@@ -9608,11 +9605,11 @@
       <c r="H176" t="s">
         <v>314</v>
       </c>
-      <c r="I176" s="4" t="s">
-        <v>272</v>
+      <c r="I176" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="J176" t="s">
-        <v>526</v>
+        <v>291</v>
       </c>
       <c r="L176" t="s">
         <v>312</v>
@@ -9623,16 +9620,16 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B177">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C177" t="s">
         <v>311</v>
       </c>
       <c r="D177" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E177" t="s">
         <v>67</v>
@@ -9646,11 +9643,11 @@
       <c r="H177" t="s">
         <v>314</v>
       </c>
-      <c r="I177" s="5" t="s">
-        <v>273</v>
+      <c r="I177" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="J177" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L177" t="s">
         <v>312</v>
@@ -9661,16 +9658,16 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B178">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C178" t="s">
         <v>311</v>
       </c>
       <c r="D178" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E178" t="s">
         <v>67</v>
@@ -9684,11 +9681,11 @@
       <c r="H178" t="s">
         <v>314</v>
       </c>
-      <c r="I178" s="2" t="s">
-        <v>274</v>
+      <c r="I178" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="J178" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="L178" t="s">
         <v>312</v>
@@ -9699,16 +9696,16 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="B179">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="C179" t="s">
         <v>311</v>
       </c>
       <c r="D179" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E179" t="s">
         <v>67</v>
@@ -9722,11 +9719,11 @@
       <c r="H179" t="s">
         <v>314</v>
       </c>
-      <c r="I179" s="4" t="s">
-        <v>275</v>
+      <c r="I179" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="J179" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="L179" t="s">
         <v>312</v>
@@ -9737,16 +9734,16 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B180">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C180" t="s">
         <v>311</v>
       </c>
       <c r="D180" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E180" t="s">
         <v>67</v>
@@ -9760,11 +9757,11 @@
       <c r="H180" t="s">
         <v>314</v>
       </c>
-      <c r="I180" s="2" t="s">
-        <v>276</v>
+      <c r="I180" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="J180" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L180" t="s">
         <v>312</v>
@@ -9775,10 +9772,10 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="B181">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C181" t="s">
         <v>311</v>
@@ -9799,10 +9796,10 @@
         <v>314</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J181" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="L181" t="s">
         <v>312</v>
@@ -9813,7 +9810,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="B182">
         <v>1996</v>
@@ -9822,7 +9819,7 @@
         <v>311</v>
       </c>
       <c r="D182" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E182" t="s">
         <v>67</v>
@@ -9836,11 +9833,11 @@
       <c r="H182" t="s">
         <v>314</v>
       </c>
-      <c r="I182" s="4" t="s">
-        <v>278</v>
+      <c r="I182" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="J182" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="L182" t="s">
         <v>312</v>
@@ -9851,16 +9848,16 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B183">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C183" t="s">
         <v>311</v>
       </c>
       <c r="D183" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E183" t="s">
         <v>67</v>
@@ -9874,11 +9871,9 @@
       <c r="H183" t="s">
         <v>314</v>
       </c>
-      <c r="I183" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="I183" s="2"/>
       <c r="J183" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L183" t="s">
         <v>312</v>
@@ -9889,7 +9884,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B184">
         <v>1995</v>
@@ -9912,9 +9907,11 @@
       <c r="H184" t="s">
         <v>314</v>
       </c>
-      <c r="I184" s="2"/>
+      <c r="I184" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="J184" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L184" t="s">
         <v>312</v>
@@ -9925,10 +9922,10 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B185">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C185" t="s">
         <v>311</v>
@@ -9949,10 +9946,10 @@
         <v>314</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J185" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="L185" t="s">
         <v>312</v>
@@ -9963,10 +9960,10 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="B186">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C186" t="s">
         <v>311</v>
@@ -9987,10 +9984,10 @@
         <v>314</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J186" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L186" t="s">
         <v>312</v>
@@ -10001,16 +9998,16 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="B187">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="C187" t="s">
         <v>311</v>
       </c>
       <c r="D187" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E187" t="s">
         <v>67</v>
@@ -10024,11 +10021,11 @@
       <c r="H187" t="s">
         <v>314</v>
       </c>
-      <c r="I187" s="2" t="s">
-        <v>282</v>
+      <c r="I187" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="J187" t="s">
-        <v>270</v>
+        <v>527</v>
       </c>
       <c r="L187" t="s">
         <v>312</v>
@@ -10039,16 +10036,16 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="B188">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C188" t="s">
         <v>311</v>
       </c>
       <c r="D188" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E188" t="s">
         <v>67</v>
@@ -10062,11 +10059,11 @@
       <c r="H188" t="s">
         <v>314</v>
       </c>
-      <c r="I188" s="4" t="s">
-        <v>283</v>
+      <c r="I188" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="J188" t="s">
-        <v>527</v>
+        <v>272</v>
       </c>
       <c r="L188" t="s">
         <v>312</v>
@@ -10077,16 +10074,16 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="B189">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="C189" t="s">
         <v>311</v>
       </c>
       <c r="D189" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E189" t="s">
         <v>67</v>
@@ -10100,11 +10097,9 @@
       <c r="H189" t="s">
         <v>314</v>
       </c>
-      <c r="I189" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="I189" s="4"/>
       <c r="J189" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="L189" t="s">
         <v>312</v>
@@ -10115,10 +10110,10 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="B190">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="C190" t="s">
         <v>311</v>
@@ -10138,9 +10133,11 @@
       <c r="H190" t="s">
         <v>314</v>
       </c>
-      <c r="I190" s="4"/>
+      <c r="I190" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="J190" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="L190" t="s">
         <v>312</v>
@@ -10151,16 +10148,16 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B191">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="C191" t="s">
         <v>311</v>
       </c>
       <c r="D191" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E191" t="s">
         <v>67</v>
@@ -10175,10 +10172,10 @@
         <v>314</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J191" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L191" t="s">
         <v>312</v>
@@ -10189,10 +10186,10 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="B192">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C192" t="s">
         <v>311</v>
@@ -10212,11 +10209,11 @@
       <c r="H192" t="s">
         <v>314</v>
       </c>
-      <c r="I192" s="2" t="s">
-        <v>286</v>
+      <c r="I192" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="J192" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="L192" t="s">
         <v>312</v>
@@ -10227,16 +10224,16 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="B193">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C193" t="s">
         <v>311</v>
       </c>
       <c r="D193" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E193" t="s">
         <v>67</v>
@@ -10251,10 +10248,10 @@
         <v>314</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J193" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="L193" t="s">
         <v>312</v>
@@ -10265,16 +10262,16 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B194">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C194" t="s">
         <v>311</v>
       </c>
       <c r="D194" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E194" t="s">
         <v>67</v>
@@ -10289,10 +10286,10 @@
         <v>314</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J194" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="L194" t="s">
         <v>312</v>
@@ -10303,7 +10300,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="B195">
         <v>1998</v>
@@ -10312,7 +10309,7 @@
         <v>311</v>
       </c>
       <c r="D195" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E195" t="s">
         <v>67</v>
@@ -10326,11 +10323,11 @@
       <c r="H195" t="s">
         <v>314</v>
       </c>
-      <c r="I195" s="4" t="s">
-        <v>289</v>
+      <c r="I195" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="J195" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L195" t="s">
         <v>312</v>
@@ -10341,7 +10338,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B196">
         <v>1998</v>
@@ -10350,7 +10347,7 @@
         <v>311</v>
       </c>
       <c r="D196" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E196" t="s">
         <v>67</v>
@@ -10364,11 +10361,11 @@
       <c r="H196" t="s">
         <v>314</v>
       </c>
-      <c r="I196" s="5" t="s">
-        <v>290</v>
+      <c r="I196" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="J196" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L196" t="s">
         <v>312</v>
@@ -10379,16 +10376,16 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="B197">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C197" t="s">
         <v>311</v>
       </c>
       <c r="D197" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E197" t="s">
         <v>67</v>
@@ -10402,11 +10399,11 @@
       <c r="H197" t="s">
         <v>314</v>
       </c>
-      <c r="I197" s="4" t="s">
-        <v>291</v>
+      <c r="I197" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="J197" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L197" t="s">
         <v>312</v>
@@ -10417,16 +10414,16 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B198">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C198" t="s">
         <v>311</v>
       </c>
       <c r="D198" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E198" t="s">
         <v>67</v>
@@ -10440,11 +10437,11 @@
       <c r="H198" t="s">
         <v>314</v>
       </c>
-      <c r="I198" s="5" t="s">
-        <v>292</v>
+      <c r="I198" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="J198" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="L198" t="s">
         <v>312</v>
@@ -10455,7 +10452,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>519</v>
+        <v>446</v>
       </c>
       <c r="B199">
         <v>1999</v>
@@ -10464,7 +10461,7 @@
         <v>311</v>
       </c>
       <c r="D199" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E199" t="s">
         <v>67</v>
@@ -10479,10 +10476,10 @@
         <v>314</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J199" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L199" t="s">
         <v>312</v>
@@ -10493,16 +10490,16 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>446</v>
+        <v>518</v>
       </c>
       <c r="B200">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="C200" t="s">
         <v>311</v>
       </c>
       <c r="D200" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E200" t="s">
         <v>67</v>
@@ -10517,10 +10514,10 @@
         <v>314</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J200" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="L200" t="s">
         <v>312</v>
@@ -10531,10 +10528,10 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="B201">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C201" t="s">
         <v>311</v>
@@ -10555,10 +10552,10 @@
         <v>314</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J201" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="L201" t="s">
         <v>312</v>
@@ -10569,16 +10566,16 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="B202">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C202" t="s">
         <v>311</v>
       </c>
       <c r="D202" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E202" t="s">
         <v>67</v>
@@ -10593,10 +10590,10 @@
         <v>314</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J202" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L202" t="s">
         <v>312</v>
@@ -10607,10 +10604,10 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="B203">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C203" t="s">
         <v>311</v>
@@ -10630,11 +10627,11 @@
       <c r="H203" t="s">
         <v>314</v>
       </c>
-      <c r="I203" s="4" t="s">
-        <v>297</v>
+      <c r="I203" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="J203" t="s">
-        <v>279</v>
+        <v>173</v>
       </c>
       <c r="L203" t="s">
         <v>312</v>
@@ -10645,16 +10642,16 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="B204">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C204" t="s">
         <v>311</v>
       </c>
       <c r="D204" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E204" t="s">
         <v>67</v>
@@ -10669,10 +10666,10 @@
         <v>314</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J204" t="s">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="L204" t="s">
         <v>312</v>
@@ -10683,16 +10680,16 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="B205">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C205" t="s">
         <v>311</v>
       </c>
       <c r="D205" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E205" t="s">
         <v>67</v>
@@ -10707,10 +10704,10 @@
         <v>314</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J205" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L205" t="s">
         <v>312</v>
@@ -10721,7 +10718,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B206">
         <v>1998</v>
@@ -10730,7 +10727,7 @@
         <v>311</v>
       </c>
       <c r="D206" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E206" t="s">
         <v>67</v>
@@ -10745,10 +10742,10 @@
         <v>314</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J206" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L206" t="s">
         <v>312</v>
@@ -10759,16 +10756,16 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="B207">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C207" t="s">
         <v>311</v>
       </c>
       <c r="D207" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E207" t="s">
         <v>67</v>
@@ -10782,11 +10779,11 @@
       <c r="H207" t="s">
         <v>314</v>
       </c>
-      <c r="I207" s="2" t="s">
-        <v>301</v>
+      <c r="I207" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="J207" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L207" t="s">
         <v>312</v>
@@ -10797,16 +10794,16 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="B208">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C208" t="s">
         <v>311</v>
       </c>
       <c r="D208" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E208" t="s">
         <v>67</v>
@@ -10821,10 +10818,10 @@
         <v>314</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J208" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="L208" t="s">
         <v>312</v>
@@ -10835,10 +10832,10 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="B209">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="C209" t="s">
         <v>311</v>
@@ -10858,11 +10855,11 @@
       <c r="H209" t="s">
         <v>314</v>
       </c>
-      <c r="I209" s="4" t="s">
-        <v>303</v>
+      <c r="I209" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="J209" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="L209" t="s">
         <v>312</v>
@@ -10873,16 +10870,16 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B210">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C210" t="s">
         <v>311</v>
       </c>
       <c r="D210" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E210" t="s">
         <v>67</v>
@@ -10896,11 +10893,11 @@
       <c r="H210" t="s">
         <v>314</v>
       </c>
-      <c r="I210" s="2" t="s">
-        <v>304</v>
+      <c r="I210" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="J210" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="L210" t="s">
         <v>312</v>
@@ -10911,7 +10908,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="B211">
         <v>1998</v>
@@ -10934,11 +10931,11 @@
       <c r="H211" t="s">
         <v>314</v>
       </c>
-      <c r="I211" s="4" t="s">
-        <v>305</v>
+      <c r="I211" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="J211" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L211" t="s">
         <v>312</v>
@@ -10949,16 +10946,16 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>520</v>
+        <v>443</v>
       </c>
       <c r="B212">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C212" t="s">
         <v>311</v>
       </c>
       <c r="D212" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E212" t="s">
         <v>67</v>
@@ -10972,11 +10969,11 @@
       <c r="H212" t="s">
         <v>314</v>
       </c>
-      <c r="I212" s="2" t="s">
-        <v>306</v>
+      <c r="I212" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="J212" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L212" t="s">
         <v>312</v>
@@ -10987,16 +10984,16 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="B213">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C213" t="s">
         <v>311</v>
       </c>
       <c r="D213" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E213" t="s">
         <v>67</v>
@@ -11010,11 +11007,11 @@
       <c r="H213" t="s">
         <v>314</v>
       </c>
-      <c r="I213" s="4" t="s">
-        <v>307</v>
+      <c r="I213" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="J213" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L213" t="s">
         <v>312</v>
@@ -11025,16 +11022,16 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B214">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C214" t="s">
         <v>311</v>
       </c>
       <c r="D214" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E214" t="s">
         <v>67</v>
@@ -11048,11 +11045,11 @@
       <c r="H214" t="s">
         <v>314</v>
       </c>
-      <c r="I214" s="2" t="s">
-        <v>308</v>
+      <c r="I214" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="J214" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="L214" t="s">
         <v>312</v>
@@ -11063,16 +11060,16 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="B215">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="C215" t="s">
         <v>311</v>
       </c>
       <c r="D215" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E215" t="s">
         <v>67</v>
@@ -11087,53 +11084,15 @@
         <v>314</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J215" t="s">
-        <v>173</v>
+        <v>310</v>
       </c>
       <c r="L215" t="s">
         <v>312</v>
       </c>
       <c r="N215" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>521</v>
-      </c>
-      <c r="B216">
-        <v>1995</v>
-      </c>
-      <c r="C216" t="s">
-        <v>311</v>
-      </c>
-      <c r="D216" t="s">
-        <v>401</v>
-      </c>
-      <c r="E216" t="s">
-        <v>67</v>
-      </c>
-      <c r="F216" t="s">
-        <v>257</v>
-      </c>
-      <c r="G216" s="7">
-        <v>43374</v>
-      </c>
-      <c r="H216" t="s">
-        <v>314</v>
-      </c>
-      <c r="I216" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J216" t="s">
-        <v>310</v>
-      </c>
-      <c r="L216" t="s">
-        <v>312</v>
-      </c>
-      <c r="N216" t="s">
         <v>312</v>
       </c>
     </row>
